--- a/teaching/traditional_assets/database/data/denmark/denmark_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08259999999999999</v>
+        <v>0.05405</v>
       </c>
       <c r="E2">
-        <v>0.161</v>
+        <v>0.0577</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,91 +603,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0005723914188319543</v>
+        <v>1.797737564735485e-05</v>
       </c>
       <c r="J2">
-        <v>0.0004948904051887971</v>
+        <v>1.508477964356965e-05</v>
       </c>
       <c r="K2">
-        <v>535.51</v>
+        <v>414.31</v>
       </c>
       <c r="L2">
-        <v>0.3649877317339149</v>
+        <v>0.2941498047568335</v>
       </c>
       <c r="M2">
-        <v>171.68522</v>
+        <v>165.22144</v>
       </c>
       <c r="N2">
-        <v>0.03535891669241067</v>
+        <v>0.03052984958793747</v>
       </c>
       <c r="O2">
-        <v>0.320601333308435</v>
+        <v>0.3987869952451063</v>
       </c>
       <c r="P2">
-        <v>127.18522</v>
+        <v>95.54444000000001</v>
       </c>
       <c r="Q2">
-        <v>0.02619405210585933</v>
+        <v>0.0176548357293322</v>
       </c>
       <c r="R2">
-        <v>0.2375029784691229</v>
+        <v>0.230610991769448</v>
       </c>
       <c r="S2">
-        <v>44.5</v>
+        <v>69.67700000000001</v>
       </c>
       <c r="T2">
-        <v>0.2591952877481241</v>
+        <v>0.4217188761942761</v>
       </c>
       <c r="U2">
-        <v>1140.17</v>
+        <v>1105.6</v>
       </c>
       <c r="V2">
-        <v>0.2348203068684997</v>
+        <v>0.2042943198196533</v>
       </c>
       <c r="W2">
-        <v>0.112568306010929</v>
+        <v>0.08271863858495976</v>
       </c>
       <c r="X2">
-        <v>0.05065888529237704</v>
+        <v>0.04272666605584083</v>
       </c>
       <c r="Y2">
-        <v>0.06190942071855192</v>
+        <v>0.03999197252911893</v>
       </c>
       <c r="Z2">
-        <v>0.2548841384087616</v>
+        <v>0.224715931983631</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04287288240400957</v>
+        <v>0.03487953305794488</v>
       </c>
       <c r="AC2">
-        <v>-0.04287288240400957</v>
+        <v>-0.0348785982777038</v>
       </c>
       <c r="AD2">
-        <v>2998.59</v>
+        <v>2517.35</v>
       </c>
       <c r="AE2">
-        <v>13.45093655144878</v>
+        <v>2.723394332003504</v>
       </c>
       <c r="AF2">
-        <v>3012.040936551449</v>
+        <v>2520.073394332004</v>
       </c>
       <c r="AG2">
-        <v>1871.870936551449</v>
+        <v>1414.473394332004</v>
       </c>
       <c r="AH2">
-        <v>0.3828440119781196</v>
+        <v>0.3177147779656708</v>
       </c>
       <c r="AI2">
-        <v>0.3950092805741111</v>
+        <v>0.3274960503681859</v>
       </c>
       <c r="AJ2">
-        <v>0.278247023124757</v>
+        <v>0.2072101881396181</v>
       </c>
       <c r="AK2">
-        <v>0.2886430934781493</v>
+        <v>0.2146597725891045</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>849.458923512748</v>
+        <v>4416.403508771929</v>
       </c>
       <c r="AP2">
-        <v>530.275052847436</v>
+        <v>2481.532270757901</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spar Nord Bank A/S (CPSE:SPNO)</t>
+          <t>Skjern Bank A/S (CPSE:SKJE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,10 +719,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0302</v>
-      </c>
-      <c r="E3">
-        <v>0.0374</v>
+        <v>0.278</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,91 +728,91 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001832052115423742</v>
+        <v>0.003223293783686038</v>
       </c>
       <c r="J3">
-        <v>0.001499247382030198</v>
+        <v>0.002671820297472455</v>
       </c>
       <c r="K3">
-        <v>138.3</v>
+        <v>17.5</v>
       </c>
       <c r="L3">
-        <v>0.3017015706806283</v>
+        <v>0.341796875</v>
       </c>
       <c r="M3">
-        <v>114.4</v>
+        <v>4.36239</v>
       </c>
       <c r="N3">
-        <v>0.09579634902026461</v>
+        <v>0.03915969479353681</v>
       </c>
       <c r="O3">
-        <v>0.8271872740419378</v>
+        <v>0.2492794285714286</v>
       </c>
       <c r="P3">
-        <v>69.90000000000001</v>
+        <v>4.36239</v>
       </c>
       <c r="Q3">
-        <v>0.05853290906045889</v>
+        <v>0.03915969479353681</v>
       </c>
       <c r="R3">
-        <v>0.5054229934924078</v>
+        <v>0.2492794285714286</v>
       </c>
       <c r="S3">
-        <v>44.5</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.388986013986014</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>519</v>
+        <v>34.1</v>
       </c>
       <c r="V3">
-        <v>0.4346005694188578</v>
+        <v>0.3061041292639138</v>
       </c>
       <c r="W3">
-        <v>0.09665245649591167</v>
+        <v>0.1198630136986301</v>
       </c>
       <c r="X3">
-        <v>0.06847111703921571</v>
+        <v>0.04401493109794138</v>
       </c>
       <c r="Y3">
-        <v>0.02818133945669596</v>
+        <v>0.07584808260068875</v>
       </c>
       <c r="Z3">
-        <v>0.2081695715530919</v>
+        <v>0.3110101792531104</v>
       </c>
       <c r="AA3">
-        <v>0.0003120976851693212</v>
+        <v>0.0008309633096490071</v>
       </c>
       <c r="AB3">
-        <v>0.04193477102784089</v>
+        <v>0.03488026194651817</v>
       </c>
       <c r="AC3">
-        <v>-0.04162267334267157</v>
+        <v>-0.03404929863686917</v>
       </c>
       <c r="AD3">
-        <v>1575.9</v>
+        <v>50.6</v>
       </c>
       <c r="AE3">
-        <v>13.45093655144878</v>
+        <v>0.5248367913763742</v>
       </c>
       <c r="AF3">
-        <v>1589.350936551449</v>
+        <v>51.12483679137637</v>
       </c>
       <c r="AG3">
-        <v>1070.350936551449</v>
+        <v>17.02483679137637</v>
       </c>
       <c r="AH3">
-        <v>0.5709796489373754</v>
+        <v>0.3145663013770771</v>
       </c>
       <c r="AI3">
-        <v>0.530907233420577</v>
+        <v>0.2459996484573098</v>
       </c>
       <c r="AJ3">
-        <v>0.4726548293859194</v>
+        <v>0.1325665441104113</v>
       </c>
       <c r="AK3">
-        <v>0.4325260264960993</v>
+        <v>0.09799886478996238</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -824,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>446.4305949008499</v>
+        <v>187.4074074074074</v>
       </c>
       <c r="AP3">
-        <v>303.2155627624501</v>
+        <v>63.05495107917175</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Skjern Bank A/S (CPSE:SKJE)</t>
+          <t>Kreditbanken A/S (CPSE:KRE)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,10 +844,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0929</v>
+        <v>0.0815</v>
       </c>
       <c r="E4">
-        <v>0.169</v>
+        <v>0.163</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.4</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="L4">
-        <v>0.3234714003944772</v>
+        <v>0.3071969696969697</v>
       </c>
       <c r="M4">
-        <v>4.213559999999999</v>
+        <v>1.32552</v>
       </c>
       <c r="N4">
-        <v>0.04686941045606228</v>
+        <v>0.01436099674972914</v>
       </c>
       <c r="O4">
-        <v>0.2569243902439024</v>
+        <v>0.163442663378545</v>
       </c>
       <c r="P4">
-        <v>4.213559999999999</v>
+        <v>1.32552</v>
       </c>
       <c r="Q4">
-        <v>0.04686941045606228</v>
+        <v>0.01436099674972914</v>
       </c>
       <c r="R4">
-        <v>0.2569243902439024</v>
+        <v>0.163442663378545</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,55 +892,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>45.7</v>
+        <v>15.2</v>
       </c>
       <c r="V4">
-        <v>0.5083426028921023</v>
+        <v>0.1646803900325027</v>
       </c>
       <c r="W4">
-        <v>0.1138098542678695</v>
+        <v>0.08796095444685466</v>
       </c>
       <c r="X4">
-        <v>0.05797370389501148</v>
+        <v>0.0356178801778706</v>
       </c>
       <c r="Y4">
-        <v>0.05583615037285805</v>
+        <v>0.05234307426898406</v>
       </c>
       <c r="Z4">
-        <v>0.3025059665871122</v>
+        <v>0.2724458204334365</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04227434219537011</v>
+        <v>0.03486581668668395</v>
       </c>
       <c r="AC4">
-        <v>-0.04227434219537011</v>
+        <v>-0.03486581668668395</v>
       </c>
       <c r="AD4">
-        <v>69.59999999999999</v>
+        <v>3.49</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>69.59999999999999</v>
+        <v>3.49</v>
       </c>
       <c r="AG4">
-        <v>23.89999999999999</v>
+        <v>-11.71</v>
       </c>
       <c r="AH4">
-        <v>0.4363636363636363</v>
+        <v>0.0364338657479904</v>
       </c>
       <c r="AI4">
-        <v>0.3223714682723482</v>
+        <v>0.03175903175903176</v>
       </c>
       <c r="AJ4">
-        <v>0.2100175746924428</v>
+        <v>-0.1453033875170616</v>
       </c>
       <c r="AK4">
-        <v>0.1404230317273795</v>
+        <v>-0.1236667018692576</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -960,7 +957,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nordfyns Bank A/S (CPSE:NRDF)</t>
+          <t>Jutlander Bank A/S (CPSE:JUTBK)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -969,10 +966,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0527</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="E5">
-        <v>0.0209</v>
+        <v>0.259</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -987,82 +984,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.65</v>
+        <v>32.5</v>
       </c>
       <c r="L5">
-        <v>0.1666666666666667</v>
+        <v>0.2488514548238898</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>5.4266</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.0198995232856619</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.1669723076923077</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>5.4266</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.0198995232856619</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.1669723076923077</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>12.5</v>
+        <v>48.1</v>
       </c>
       <c r="V5">
-        <v>0.4125412541254125</v>
+        <v>0.1763843050971764</v>
       </c>
       <c r="W5">
-        <v>0.07153846153846155</v>
+        <v>0.06844987363100252</v>
       </c>
       <c r="X5">
-        <v>0.05638174690237281</v>
+        <v>0.03805927437337385</v>
       </c>
       <c r="Y5">
-        <v>0.01515671463608874</v>
+        <v>0.03039059925762867</v>
       </c>
       <c r="Z5">
-        <v>0.3840330350997935</v>
+        <v>0.2793582887700535</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04234537756136516</v>
+        <v>0.03487109772951659</v>
       </c>
       <c r="AC5">
-        <v>-0.04234537756136516</v>
+        <v>-0.03487109772951659</v>
       </c>
       <c r="AD5">
-        <v>20.9</v>
+        <v>43.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>20.9</v>
+        <v>43.7</v>
       </c>
       <c r="AG5">
-        <v>8.399999999999999</v>
+        <v>-4.399999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.4082031249999999</v>
+        <v>0.1381163084702908</v>
       </c>
       <c r="AI5">
-        <v>0.2438739789964994</v>
+        <v>0.07655921513665032</v>
       </c>
       <c r="AJ5">
-        <v>0.2170542635658914</v>
+        <v>-0.01639955273947074</v>
       </c>
       <c r="AK5">
-        <v>0.1147540983606557</v>
+        <v>-0.008417830495504109</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Møns Bank A/S (CPSE:MNBA)</t>
+          <t>Vestjysk Bank A/S (CPSE:VJBA)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1088,10 +1088,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0958</v>
-      </c>
-      <c r="E6">
-        <v>0.117</v>
+        <v>0.158</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1106,85 +1103,82 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.24</v>
+        <v>52.2</v>
       </c>
       <c r="L6">
-        <v>0.1927272727272727</v>
+        <v>0.386094674556213</v>
       </c>
       <c r="M6">
-        <v>0.5810799999999999</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.01694110787172012</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.1370471698113207</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>0.5810799999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.01694110787172012</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.1370471698113207</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>13.1</v>
+        <v>58.9</v>
       </c>
       <c r="V6">
-        <v>0.3819241982507289</v>
+        <v>0.1444335458558117</v>
       </c>
       <c r="W6">
-        <v>0.06207906295754027</v>
+        <v>0.1235795454545455</v>
       </c>
       <c r="X6">
-        <v>0.05272089372477075</v>
+        <v>0.03806173442306611</v>
       </c>
       <c r="Y6">
-        <v>0.009358169232769518</v>
+        <v>0.08551781103147936</v>
       </c>
       <c r="Z6">
-        <v>0.3042876901798064</v>
+        <v>0.3193197921587151</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04253915506354067</v>
+        <v>0.03487110248885537</v>
       </c>
       <c r="AC6">
-        <v>-0.04253915506354067</v>
+        <v>-0.03487110248885537</v>
       </c>
       <c r="AD6">
-        <v>17</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>17</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AG6">
-        <v>3.9</v>
+        <v>6.500000000000007</v>
       </c>
       <c r="AH6">
-        <v>0.3313840155945419</v>
+        <v>0.1382079459002536</v>
       </c>
       <c r="AI6">
-        <v>0.2014218009478673</v>
+        <v>0.1148174157303371</v>
       </c>
       <c r="AJ6">
-        <v>0.1020942408376964</v>
+        <v>0.01568911416847697</v>
       </c>
       <c r="AK6">
-        <v>0.0546984572230014</v>
+        <v>0.01272762874486001</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1201,7 +1195,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ringkjøbing Landbobank A/S (CPSE:RILBA)</t>
+          <t>Lollands Bank A/S (CPSE:LOLB)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1210,10 +1204,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.183</v>
-      </c>
-      <c r="E7">
-        <v>0.153</v>
+        <v>0.161</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1228,28 +1219,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>132.9</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="L7">
-        <v>0.4511201629327902</v>
+        <v>0.2814102564102564</v>
       </c>
       <c r="M7">
-        <v>42.632</v>
+        <v>0.8521200000000001</v>
       </c>
       <c r="N7">
-        <v>0.01891644850689976</v>
+        <v>0.01236748911465893</v>
       </c>
       <c r="O7">
-        <v>0.3207825432656132</v>
+        <v>0.09705239179954443</v>
       </c>
       <c r="P7">
-        <v>42.632</v>
+        <v>0.8521200000000001</v>
       </c>
       <c r="Q7">
-        <v>0.01891644850689976</v>
+        <v>0.01236748911465893</v>
       </c>
       <c r="R7">
-        <v>0.3207825432656132</v>
+        <v>0.09705239179954443</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1258,55 +1249,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>101</v>
+        <v>3.29</v>
       </c>
       <c r="V7">
-        <v>0.04481519279407197</v>
+        <v>0.04775036284470247</v>
       </c>
       <c r="W7">
-        <v>0.1189368176123143</v>
+        <v>0.1109987357774968</v>
       </c>
       <c r="X7">
-        <v>0.051569652345324</v>
+        <v>0.03836569974403914</v>
       </c>
       <c r="Y7">
-        <v>0.0673671652669903</v>
+        <v>0.07263303603345771</v>
       </c>
       <c r="Z7">
-        <v>0.1853529633824085</v>
+        <v>0.3567753001715266</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.042610933126305</v>
+        <v>0.03487168286869503</v>
       </c>
       <c r="AC7">
-        <v>-0.042610933126305</v>
+        <v>-0.03487168286869503</v>
       </c>
       <c r="AD7">
-        <v>979.4</v>
+        <v>12.1</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>979.4</v>
+        <v>12.1</v>
       </c>
       <c r="AG7">
-        <v>878.4</v>
+        <v>8.809999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.3029290773560979</v>
+        <v>0.1493827160493827</v>
       </c>
       <c r="AI7">
-        <v>0.4745614885163291</v>
+        <v>0.1141509433962264</v>
       </c>
       <c r="AJ7">
-        <v>0.2804508157466237</v>
+        <v>0.1133702226225711</v>
       </c>
       <c r="AK7">
-        <v>0.447523945384145</v>
+        <v>0.08577548437347871</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1323,7 +1314,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Djurslands Bank A/S (CPSE:DJUR)</t>
+          <t>Fynske Bank A/S (CPSE:FYNBK)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1332,10 +1323,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0704</v>
+        <v>0.0135</v>
       </c>
       <c r="E8">
-        <v>0.09619999999999999</v>
+        <v>0.0338</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1350,28 +1341,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.3</v>
+        <v>5.65</v>
       </c>
       <c r="L8">
-        <v>0.2674825174825175</v>
+        <v>0.1354916067146283</v>
       </c>
       <c r="M8">
-        <v>2.34768</v>
+        <v>1.89756</v>
       </c>
       <c r="N8">
-        <v>0.02301647058823529</v>
+        <v>0.01942231320368475</v>
       </c>
       <c r="O8">
-        <v>0.1534431372549019</v>
+        <v>0.3358513274336283</v>
       </c>
       <c r="P8">
-        <v>2.34768</v>
+        <v>1.89756</v>
       </c>
       <c r="Q8">
-        <v>0.02301647058823529</v>
+        <v>0.01942231320368475</v>
       </c>
       <c r="R8">
-        <v>0.1534431372549019</v>
+        <v>0.3358513274336283</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1380,55 +1371,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>29</v>
+        <v>75.8</v>
       </c>
       <c r="V8">
-        <v>0.2843137254901961</v>
+        <v>0.7758444216990787</v>
       </c>
       <c r="W8">
-        <v>0.09421182266009852</v>
+        <v>0.03526841448189763</v>
       </c>
       <c r="X8">
-        <v>0.05065888529237704</v>
+        <v>0.04019074504513773</v>
       </c>
       <c r="Y8">
-        <v>0.04355293736772148</v>
+        <v>-0.004922330563240096</v>
       </c>
       <c r="Z8">
-        <v>0.3204481792717087</v>
+        <v>0.3225058004640372</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0426721973113328</v>
+        <v>0.03487487391688171</v>
       </c>
       <c r="AC8">
-        <v>-0.0426721973113328</v>
+        <v>-0.03487487391688171</v>
       </c>
       <c r="AD8">
-        <v>39.4</v>
+        <v>26.1</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>39.4</v>
+        <v>26.1</v>
       </c>
       <c r="AG8">
-        <v>10.4</v>
+        <v>-49.7</v>
       </c>
       <c r="AH8">
-        <v>0.2786421499292786</v>
+        <v>0.2108239095315024</v>
       </c>
       <c r="AI8">
-        <v>0.1926650366748166</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="AJ8">
-        <v>0.09252669039145905</v>
+        <v>-1.035416666666666</v>
       </c>
       <c r="AK8">
-        <v>0.05925925925925925</v>
+        <v>-0.3840803709428129</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1445,7 +1436,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fynske Bank A/S (CPSE:FYNBK)</t>
+          <t>Ringkjøbing Landbobank A/S (CPSE:RILBA)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1454,10 +1445,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0433</v>
+        <v>0.163</v>
       </c>
       <c r="E9">
-        <v>-0.00237</v>
+        <v>0.145</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1472,28 +1463,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.7</v>
+        <v>138.8</v>
       </c>
       <c r="L9">
-        <v>0.2388392857142857</v>
+        <v>0.464680281218614</v>
       </c>
       <c r="M9">
-        <v>1.75266</v>
+        <v>50.634</v>
       </c>
       <c r="N9">
-        <v>0.02035609756097561</v>
+        <v>0.01913605442176871</v>
       </c>
       <c r="O9">
-        <v>0.1638</v>
+        <v>0.3647982708933717</v>
       </c>
       <c r="P9">
-        <v>1.75266</v>
+        <v>50.634</v>
       </c>
       <c r="Q9">
-        <v>0.02035609756097561</v>
+        <v>0.01913605442176871</v>
       </c>
       <c r="R9">
-        <v>0.1638</v>
+        <v>0.3647982708933717</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1502,55 +1493,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>53.4</v>
+        <v>104.9</v>
       </c>
       <c r="V9">
-        <v>0.6202090592334495</v>
+        <v>0.03964474678760394</v>
       </c>
       <c r="W9">
-        <v>0.06654228855721392</v>
+        <v>0.1279970490593877</v>
       </c>
       <c r="X9">
-        <v>0.04830274930324244</v>
+        <v>0.04218500342896647</v>
       </c>
       <c r="Y9">
-        <v>0.01823953925397147</v>
+        <v>0.08581204563042122</v>
       </c>
       <c r="Z9">
-        <v>0.3412033511043411</v>
+        <v>0.1634026258205689</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.042852455939311</v>
+        <v>0.03487787230768356</v>
       </c>
       <c r="AC9">
-        <v>-0.042852455939311</v>
+        <v>-0.03487787230768356</v>
       </c>
       <c r="AD9">
-        <v>22.5</v>
+        <v>971.5</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>22.5</v>
+        <v>971.5</v>
       </c>
       <c r="AG9">
-        <v>-30.9</v>
+        <v>866.6</v>
       </c>
       <c r="AH9">
-        <v>0.2071823204419889</v>
+        <v>0.2685556323427782</v>
       </c>
       <c r="AI9">
-        <v>0.1231527093596059</v>
+        <v>0.4385608522932467</v>
       </c>
       <c r="AJ9">
-        <v>-0.5597826086956522</v>
+        <v>0.2467118373854125</v>
       </c>
       <c r="AK9">
-        <v>-0.2389791183294664</v>
+        <v>0.4106525138605885</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1567,7 +1558,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hvidbjerg Bank A/S (CPSE:HVID)</t>
+          <t>Møns Bank A/S (CPSE:MNBA)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1576,10 +1567,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.08259999999999999</v>
+        <v>0.05110000000000001</v>
       </c>
       <c r="E10">
-        <v>0.196</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1594,82 +1585,85 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.77</v>
+        <v>4.75</v>
       </c>
       <c r="L10">
-        <v>0.3016</v>
+        <v>0.1862745098039216</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>0.62685</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.01295144628099174</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0.1319684210526316</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>0.62685</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.01295144628099174</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0.1319684210526316</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
       <c r="U10">
-        <v>6.22</v>
+        <v>10.5</v>
       </c>
       <c r="V10">
-        <v>0.4442857142857143</v>
+        <v>0.2169421487603306</v>
       </c>
       <c r="W10">
-        <v>0.1803827751196172</v>
+        <v>0.07047477744807121</v>
       </c>
       <c r="X10">
-        <v>0.04806227888729195</v>
+        <v>0.04326832868271518</v>
       </c>
       <c r="Y10">
-        <v>0.1323204962323253</v>
+        <v>0.02720644876535602</v>
       </c>
       <c r="Z10">
-        <v>0.8394895903290801</v>
+        <v>0.3582466985108176</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04287288240400957</v>
+        <v>0.03487932424772405</v>
       </c>
       <c r="AC10">
-        <v>-0.04287288240400957</v>
+        <v>-0.03487932424772405</v>
       </c>
       <c r="AD10">
-        <v>3.48</v>
+        <v>20.4</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>3.48</v>
+        <v>20.4</v>
       </c>
       <c r="AG10">
-        <v>-2.74</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.1990846681922197</v>
+        <v>0.2965116279069767</v>
       </c>
       <c r="AI10">
-        <v>0.1304347826086956</v>
+        <v>0.2109617373319545</v>
       </c>
       <c r="AJ10">
-        <v>-0.2433392539964476</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="AK10">
-        <v>-0.1339198435972629</v>
+        <v>0.1148491879350348</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1686,7 +1680,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kreditbanken A/S (CPSE:KRE)</t>
+          <t>Danske Andelskassers Bank A/S (CPSE:DAB)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1695,10 +1689,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.132</v>
-      </c>
-      <c r="E11">
-        <v>0.265</v>
+        <v>0.0541</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1713,85 +1704,85 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.9</v>
+        <v>18.5</v>
       </c>
       <c r="L11">
-        <v>0.3758620689655173</v>
+        <v>0.2064732142857143</v>
       </c>
       <c r="M11">
-        <v>0.73584</v>
+        <v>19.577</v>
       </c>
       <c r="N11">
-        <v>0.008566239813736904</v>
+        <v>0.08838374717832959</v>
       </c>
       <c r="O11">
-        <v>0.06750825688073395</v>
+        <v>1.058216216216216</v>
       </c>
       <c r="P11">
-        <v>0.73584</v>
+        <v>19.3</v>
       </c>
       <c r="Q11">
-        <v>0.008566239813736904</v>
+        <v>0.08713318284424379</v>
       </c>
       <c r="R11">
-        <v>0.06750825688073395</v>
+        <v>1.043243243243243</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.277000000000001</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.01414925678091643</v>
       </c>
       <c r="U11">
-        <v>13.2</v>
+        <v>167.8</v>
       </c>
       <c r="V11">
-        <v>0.1536670547147846</v>
+        <v>0.7575620767494358</v>
       </c>
       <c r="W11">
-        <v>0.1242873432155074</v>
+        <v>0.06548672566371681</v>
       </c>
       <c r="X11">
-        <v>0.04730444148916652</v>
+        <v>0.04359605320546626</v>
       </c>
       <c r="Y11">
-        <v>0.0769829017263409</v>
+        <v>0.02189067245825055</v>
       </c>
       <c r="Z11">
-        <v>0.3284258210645526</v>
+        <v>0.456444218033622</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04294007633833723</v>
+        <v>0.0348797418681657</v>
       </c>
       <c r="AC11">
-        <v>-0.04294007633833723</v>
+        <v>-0.0348797418681657</v>
       </c>
       <c r="AD11">
-        <v>17.9</v>
+        <v>97</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>17.9</v>
+        <v>97</v>
       </c>
       <c r="AG11">
-        <v>4.699999999999999</v>
+        <v>-70.80000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.1724470134874759</v>
+        <v>0.304552590266876</v>
       </c>
       <c r="AI11">
-        <v>0.1625794732061762</v>
+        <v>0.2349237103414871</v>
       </c>
       <c r="AJ11">
-        <v>0.05187637969094921</v>
+        <v>-0.4698075646980758</v>
       </c>
       <c r="AK11">
-        <v>0.04850361197110422</v>
+        <v>-0.2888616891064872</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1808,7 +1799,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jutlander Bank A/S (CPSE:JUTBK)</t>
+          <t>Totalbanken A/S (CPSE:TOTA)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1817,10 +1808,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.124</v>
+        <v>0.08529999999999999</v>
       </c>
       <c r="E12">
-        <v>0.286</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1835,85 +1826,82 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>51.5</v>
+        <v>6.56</v>
       </c>
       <c r="L12">
-        <v>0.3619114546732256</v>
+        <v>0.2603174603174603</v>
       </c>
       <c r="M12">
-        <v>5.022399999999999</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.02025978217022993</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>0.09752233009708737</v>
+        <v>-0</v>
       </c>
       <c r="P12">
-        <v>5.022399999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.02025978217022993</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>0.09752233009708737</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>46.5</v>
+        <v>20.1</v>
       </c>
       <c r="V12">
-        <v>0.1875756353368294</v>
+        <v>0.4407894736842106</v>
       </c>
       <c r="W12">
-        <v>0.112568306010929</v>
+        <v>0.09984779299847792</v>
       </c>
       <c r="X12">
-        <v>0.04635683218860502</v>
+        <v>0.04426539401296618</v>
       </c>
       <c r="Y12">
-        <v>0.06621147382232394</v>
+        <v>0.05558239898551173</v>
       </c>
       <c r="Z12">
-        <v>0.3117196056955093</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04303065795735</v>
+        <v>0.03488056582699341</v>
       </c>
       <c r="AC12">
-        <v>-0.04303065795735</v>
+        <v>-0.03488056582699341</v>
       </c>
       <c r="AD12">
-        <v>39.2</v>
+        <v>21.5</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>39.2</v>
+        <v>21.5</v>
       </c>
       <c r="AG12">
-        <v>-7.299999999999997</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="AH12">
-        <v>0.1365377917102055</v>
+        <v>0.3204172876304024</v>
       </c>
       <c r="AI12">
-        <v>0.07626459143968872</v>
+        <v>0.2191641182466871</v>
       </c>
       <c r="AJ12">
-        <v>-0.03034081463009142</v>
+        <v>0.02978723404255316</v>
       </c>
       <c r="AK12">
-        <v>-0.01561497326203208</v>
+        <v>0.01794871794871793</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1930,7 +1918,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Salling Bank A/S (CPSE:SALB)</t>
+          <t>Djurslands Bank A/S (CPSE:DJUR)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1939,10 +1927,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0299</v>
+        <v>0.0326</v>
       </c>
       <c r="E13">
-        <v>0.0723</v>
+        <v>-0.0709</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1957,82 +1945,85 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.48</v>
+        <v>6.49</v>
       </c>
       <c r="L13">
-        <v>0.2083650190114069</v>
+        <v>0.1285148514851485</v>
       </c>
       <c r="M13">
-        <v>-0</v>
+        <v>3.3894</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>0.02664622641509434</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0.5222496147919876</v>
       </c>
       <c r="P13">
-        <v>-0</v>
+        <v>3.3894</v>
       </c>
       <c r="Q13">
-        <v>-0</v>
+        <v>0.02664622641509434</v>
       </c>
       <c r="R13">
-        <v>-0</v>
+        <v>0.5222496147919876</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
       <c r="U13">
-        <v>20.2</v>
+        <v>30.8</v>
       </c>
       <c r="V13">
-        <v>0.5771428571428571</v>
+        <v>0.2421383647798742</v>
       </c>
       <c r="W13">
-        <v>0.06715686274509805</v>
+        <v>0.03930950938824955</v>
       </c>
       <c r="X13">
-        <v>0.04596650693975399</v>
+        <v>0.04525710673197407</v>
       </c>
       <c r="Y13">
-        <v>0.02119035580534406</v>
+        <v>-0.00594759734372452</v>
       </c>
       <c r="Z13">
-        <v>0.3931240657698057</v>
+        <v>0.2877492877492878</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04307029648056743</v>
+        <v>0.03488171977419691</v>
       </c>
       <c r="AC13">
-        <v>-0.04307029648056743</v>
+        <v>-0.03488171977419691</v>
       </c>
       <c r="AD13">
-        <v>4.81</v>
+        <v>66.3</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>4.81</v>
+        <v>66.3</v>
       </c>
       <c r="AG13">
-        <v>-15.39</v>
+        <v>35.5</v>
       </c>
       <c r="AH13">
-        <v>0.1208239135895503</v>
+        <v>0.3426356589147287</v>
       </c>
       <c r="AI13">
-        <v>0.05618502511388856</v>
+        <v>0.2671232876712329</v>
       </c>
       <c r="AJ13">
-        <v>-0.7848036715961245</v>
+        <v>0.2181929932390904</v>
       </c>
       <c r="AK13">
-        <v>-0.2352851245986852</v>
+        <v>0.1632934682612696</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2049,7 +2040,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vestjysk Bank A/S (CPSE:VJBA)</t>
+          <t>Nordfyns Bank A/S (CPSE:NRDF)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2058,7 +2049,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.288</v>
+        <v>0.0235</v>
+      </c>
+      <c r="E14">
+        <v>-0.07480000000000001</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2073,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>77</v>
+        <v>3.1</v>
       </c>
       <c r="L14">
-        <v>0.5519713261648745</v>
+        <v>0.1131386861313869</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2100,55 +2094,55 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>57.9</v>
+        <v>17.5</v>
       </c>
       <c r="V14">
-        <v>0.1392831368775559</v>
+        <v>0.3977272727272727</v>
       </c>
       <c r="W14">
-        <v>0.2008346374543558</v>
+        <v>0.04783950617283951</v>
       </c>
       <c r="X14">
-        <v>0.04604683864563507</v>
+        <v>0.04968286663084466</v>
       </c>
       <c r="Y14">
-        <v>0.1547877988087207</v>
+        <v>-0.00184336045800515</v>
       </c>
       <c r="Z14">
-        <v>0.3598142893990199</v>
+        <v>0.3743169398907104</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04364283022543299</v>
+        <v>0.03488606690687308</v>
       </c>
       <c r="AC14">
-        <v>-0.04364283022543299</v>
+        <v>-0.03488606690687308</v>
       </c>
       <c r="AD14">
-        <v>58.9</v>
+        <v>32.7</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>58.9</v>
+        <v>32.7</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>15.2</v>
       </c>
       <c r="AH14">
-        <v>0.1241045090602613</v>
+        <v>0.4263363754889179</v>
       </c>
       <c r="AI14">
-        <v>0.1223768959069188</v>
+        <v>0.2878521126760563</v>
       </c>
       <c r="AJ14">
-        <v>0.002399808015358771</v>
+        <v>0.2567567567567568</v>
       </c>
       <c r="AK14">
-        <v>0.002361832782239017</v>
+        <v>0.158168574401665</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2165,7 +2159,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Totalbanken A/S (CPSE:TOTA)</t>
+          <t>Spar Nord Bank A/S (CPSE:SPNO)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2174,10 +2168,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.165</v>
+        <v>0.00115</v>
       </c>
       <c r="E15">
-        <v>0.593</v>
+        <v>-0.0186</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2186,94 +2180,103 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>-0.0003017527173335332</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-0.0002410922297697855</v>
       </c>
       <c r="K15">
-        <v>10.1</v>
+        <v>108.8</v>
       </c>
       <c r="L15">
-        <v>0.3854961832061068</v>
+        <v>0.2349892008639309</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>77.13000000000001</v>
       </c>
       <c r="N15">
-        <v>-0</v>
+        <v>0.06384405264464864</v>
       </c>
       <c r="O15">
-        <v>-0</v>
+        <v>0.7089154411764707</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>7.73</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.006398476947272577</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>0.07104779411764707</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>69.40000000000001</v>
+      </c>
+      <c r="T15">
+        <v>0.8997795928951121</v>
       </c>
       <c r="U15">
-        <v>13.7</v>
+        <v>512.8</v>
       </c>
       <c r="V15">
-        <v>0.3366093366093366</v>
+        <v>0.4244681731644732</v>
       </c>
       <c r="W15">
-        <v>0.1793960923623446</v>
+        <v>0.07747632272306487</v>
       </c>
       <c r="X15">
-        <v>0.05203890168221043</v>
+        <v>0.05310208163012745</v>
       </c>
       <c r="Y15">
-        <v>0.1273571906801342</v>
+        <v>0.02437424109293743</v>
       </c>
       <c r="Z15">
-        <v>0.4661921708185053</v>
+        <v>0.1879517216500457</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>-4.531369966167959e-05</v>
       </c>
       <c r="AB15">
-        <v>0.04405428448595899</v>
+        <v>0.03488873526465289</v>
       </c>
       <c r="AC15">
-        <v>-0.04405428448595899</v>
+        <v>-0.03493404896431457</v>
       </c>
       <c r="AD15">
-        <v>18.7</v>
+        <v>1102.8</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>2.198557540627129</v>
       </c>
       <c r="AF15">
-        <v>18.7</v>
+        <v>1104.998557540627</v>
       </c>
       <c r="AG15">
-        <v>5</v>
+        <v>592.1985575406272</v>
       </c>
       <c r="AH15">
-        <v>0.3148148148148148</v>
+        <v>0.4777135647499184</v>
       </c>
       <c r="AI15">
-        <v>0.221563981042654</v>
+        <v>0.4077186722966009</v>
       </c>
       <c r="AJ15">
-        <v>0.1094091903719912</v>
+        <v>0.3289446381324799</v>
       </c>
       <c r="AK15">
-        <v>0.07072135785007072</v>
+        <v>0.2694998390293966</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>3676</v>
+      </c>
+      <c r="AP15">
+        <v>1973.995191802091</v>
       </c>
     </row>
     <row r="16">
@@ -2284,7 +2287,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Danske Andelskassers Bank A/S (CPSE:DAB)</t>
+          <t>Hvidbjerg Bank A/S (CPSE:HVID)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2293,10 +2296,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.046</v>
+        <v>0.0462</v>
       </c>
       <c r="E16">
-        <v>0.41</v>
+        <v>0.0195</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2311,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>46.5</v>
+        <v>2.57</v>
       </c>
       <c r="L16">
-        <v>0.4277828886844526</v>
+        <v>0.2089430894308943</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2338,179 +2341,60 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>205.1</v>
+        <v>5.81</v>
       </c>
       <c r="V16">
-        <v>1.174684994272623</v>
+        <v>0.2876237623762376</v>
       </c>
       <c r="W16">
-        <v>0.2105024898143956</v>
+        <v>0.1107758620689655</v>
       </c>
       <c r="X16">
-        <v>0.05621611336747008</v>
+        <v>0.03857550253280516</v>
       </c>
       <c r="Y16">
-        <v>0.1542863764469256</v>
+        <v>0.07220035953616036</v>
       </c>
       <c r="Z16">
-        <v>0.5643821391484943</v>
+        <v>0.6011730205278593</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.04424909640190895</v>
+        <v>0.03619158994835827</v>
       </c>
       <c r="AC16">
-        <v>-0.04424909640190895</v>
+        <v>-0.03619158994835827</v>
       </c>
       <c r="AD16">
-        <v>118.9</v>
+        <v>3.76</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>118.9</v>
+        <v>3.76</v>
       </c>
       <c r="AG16">
-        <v>-86.19999999999999</v>
+        <v>-2.05</v>
       </c>
       <c r="AH16">
-        <v>0.4051107325383305</v>
+        <v>0.1569282136894825</v>
       </c>
       <c r="AI16">
-        <v>0.2962132536123568</v>
+        <v>0.1222366710013004</v>
       </c>
       <c r="AJ16">
-        <v>-0.9751131221719455</v>
+        <v>-0.1129476584022039</v>
       </c>
       <c r="AK16">
-        <v>-0.4391237901171675</v>
+        <v>-0.08216432865731463</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Lollands Bank A/S (CPSE:LOLB)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Banks (Regional)</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>0.08039999999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.39</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>7.77</v>
-      </c>
-      <c r="L17">
-        <v>0.2867158671586715</v>
-      </c>
-      <c r="M17">
-        <v>-0</v>
-      </c>
-      <c r="N17">
-        <v>-0</v>
-      </c>
-      <c r="O17">
-        <v>-0</v>
-      </c>
-      <c r="P17">
-        <v>-0</v>
-      </c>
-      <c r="Q17">
-        <v>-0</v>
-      </c>
-      <c r="R17">
-        <v>-0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>3.65</v>
-      </c>
-      <c r="V17">
-        <v>0.0712890625</v>
-      </c>
-      <c r="W17">
-        <v>0.09835443037974682</v>
-      </c>
-      <c r="X17">
-        <v>0.04779458308101099</v>
-      </c>
-      <c r="Y17">
-        <v>0.05055984729873583</v>
-      </c>
-      <c r="Z17">
-        <v>0.341095028319698</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0.04434751034411016</v>
-      </c>
-      <c r="AC17">
-        <v>-0.04434751034411016</v>
-      </c>
-      <c r="AD17">
-        <v>12</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>12</v>
-      </c>
-      <c r="AG17">
-        <v>8.35</v>
-      </c>
-      <c r="AH17">
-        <v>0.189873417721519</v>
-      </c>
-      <c r="AI17">
-        <v>0.1317233809001098</v>
-      </c>
-      <c r="AJ17">
-        <v>0.1402183039462636</v>
-      </c>
-      <c r="AK17">
-        <v>0.09548313321898229</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
         <v>0</v>
       </c>
     </row>
